--- a/data/input/variables_description.xlsx
+++ b/data/input/variables_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ing.sharepoint.com/sites/LionsDen2024-PreliminaryTask/Shared Documents/Preliminary Task/Data Delivery 20240219/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacpergruca/Desktop/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="772" documentId="14_{633ECA5D-F466-4375-B059-62C6001CB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473CF22F-05BB-4D30-8836-A4B1351CFF8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01144D9-F4DB-C54B-847B-AC68C4CCF5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
+    <workbookView xWindow="30720" yWindow="1320" windowWidth="20100" windowHeight="26700" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
   <sheets>
     <sheet name="List of variables" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="198">
   <si>
     <t>Data Sources</t>
   </si>
@@ -602,12 +602,71 @@
   <si>
     <t>Single</t>
   </si>
+  <si>
+    <t>Nasz komentarz</t>
+  </si>
+  <si>
+    <t>kategoryczna nominalna
+one hot encoding</t>
+  </si>
+  <si>
+    <t>kategoryczna nominalna
+one hot encoding
+prawdopodobnie mało istotne</t>
+  </si>
+  <si>
+    <t>numeryczna dyskretna</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>numeryczna ciągła</t>
+  </si>
+  <si>
+    <t>tylko dla car loan - wartość samochodu
+numeryczna dyskretna
+zastąpić zerami???</t>
+  </si>
+  <si>
+    <t>zsumować Var9 i Var10 jako income of applicants?</t>
+  </si>
+  <si>
+    <t>kategoryczna nominalna
+one hot encoding
+zastanowić się co z tym zrobić</t>
+  </si>
+  <si>
+    <t>data zatrudnienia
+spróbować odjąć od application_date tą zmienną - przedstawic np. w miesiącach dostaniemy czas pracy na rynku (w jakimś stopniu informację o wieku)
+teoretycznie lepiej dać kredyt komuś kto dłużej pracuje, ma większe doświadczenie itd. Itd.</t>
+  </si>
+  <si>
+    <t>numeryczna dyskretna
+oznacza liczbę osób zależnych, "na utrzymaniiu", w większości pewnie równa liczbie dzieci, w przypadku rozwodników może być więcej
+DO SPRAWDZENIA</t>
+  </si>
+  <si>
+    <t>zmienna binarna, tylko dla Var2 = 2,
+oznacza czy bierzesz kredyt na wyremontowanie swojej nieruchomości
+pytanie jak tu uzupełniamy NA?</t>
+  </si>
+  <si>
+    <t>zmienna binarna, tylko dla Var2=1</t>
+  </si>
+  <si>
+    <t>binarna</t>
+  </si>
+  <si>
+    <t>numeryczna dyskretna
+tutaj średnia roczna a w Var9 i Var10 miesięczne? Ludzie z Var9 = 0 podostawali kredyty XD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +735,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -715,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -819,11 +886,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,15 +948,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,15 +981,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1043,11 +1144,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}" name="Table5" displayName="Table5" ref="A1:B36" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B36" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}" name="Table5" displayName="Table5" ref="A1:C37" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:C37" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F5C6DB0C-D45F-4502-A246-B38AC7213315}" name="Column" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C9DBC6B5-2E44-4C54-AA4A-19C09724A132}" name="Description" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2BD046B0-A22D-AC48-9611-DCD621C4FAD4}" name="Nasz komentarz"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1365,311 +1467,406 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="C1" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" ht="64">
+      <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32">
+      <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="C8" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48">
+      <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="C9" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="64">
+      <c r="A14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" ht="32">
+      <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="C17" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48">
+      <c r="A18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="C18" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="128">
+      <c r="A19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="C19" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32">
+      <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="C20" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="96">
+      <c r="A22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="C22" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="64">
+      <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="C24" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="64">
+      <c r="A36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C36" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,19 +1883,19 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -1709,7 +1906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1720,7 +1917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1731,7 +1928,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1742,7 +1939,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1753,7 +1950,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1764,7 +1961,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1775,7 +1972,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1786,7 +1983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1797,7 +1994,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1808,7 +2005,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1819,7 +2016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1830,7 +2027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1841,7 +2038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +2049,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1863,7 +2060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1874,7 +2071,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1885,7 +2082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1896,7 +2093,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1907,7 +2104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1918,7 +2115,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1929,7 +2126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1940,7 +2137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -1951,7 +2148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1962,7 +2159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -1973,7 +2170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1984,7 +2181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1995,7 +2192,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2006,7 +2203,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -2033,24 +2230,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
@@ -2096,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="64">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -2122,7 +2319,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
@@ -2150,7 +2347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="96">
       <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
@@ -2158,7 +2355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
@@ -2166,7 +2363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2191,7 +2388,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
@@ -2214,12 +2411,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="D23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2233,7 +2430,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19">
       <c r="A27" s="12"/>
       <c r="B27" s="11" t="s">
         <v>82</v>
@@ -2249,7 +2446,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2263,7 +2460,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2274,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2285,7 +2482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29">
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +2512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2345,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -2367,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +2572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48" s="4" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2423,7 +2620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
@@ -2431,7 +2628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2439,7 +2636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2447,7 +2644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>27</v>
       </c>
@@ -2455,7 +2652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>27</v>
       </c>
@@ -2463,7 +2660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2471,7 +2668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2487,7 +2684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2495,7 +2692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="28">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="4" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="4" t="s">
         <v>37</v>
       </c>
@@ -2519,7 +2716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
@@ -2527,7 +2724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="4" t="s">
         <v>37</v>
       </c>
@@ -2541,17 +2738,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
-      <UserInfo>
-        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2732,27 +2924,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
+      <UserInfo>
+        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
-    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2777,9 +2965,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
+    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/input/variables_description.xlsx
+++ b/data/input/variables_description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacpergruca/Desktop/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacpergruca/Documents/Projekty/ING_Lions_Den_2024/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01144D9-F4DB-C54B-847B-AC68C4CCF5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E5CA1-78A0-7D4C-9ED0-5A5B5F9B5820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1320" windowWidth="20100" windowHeight="26700" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
   <sheets>
     <sheet name="List of variables" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="203">
   <si>
     <t>Data Sources</t>
   </si>
@@ -660,6 +660,21 @@
   <si>
     <t>numeryczna dyskretna
 tutaj średnia roczna a w Var9 i Var10 miesięczne? Ludzie z Var9 = 0 podostawali kredyty XD</t>
+  </si>
+  <si>
+    <t>Typ danych docelowy</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>_r_</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>categorical</t>
   </si>
 </sst>
 </file>
@@ -744,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,8 +796,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -814,17 +835,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -861,19 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -884,15 +881,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -908,11 +896,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,45 +960,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1144,11 +1181,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}" name="Table5" displayName="Table5" ref="A1:C37" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:C37" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5C6DB0C-D45F-4502-A246-B38AC7213315}" name="Column" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C9DBC6B5-2E44-4C54-AA4A-19C09724A132}" name="Description" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}" name="Table5" displayName="Table5" ref="A1:D37" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:D37" xr:uid="{7BB13339-EC03-4450-84EE-8B560B0E58E3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F5C6DB0C-D45F-4502-A246-B38AC7213315}" name="Column" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C9DBC6B5-2E44-4C54-AA4A-19C09724A132}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DF6E57B2-6CA9-8B47-A547-173BDCBA65A3}" name="Typ danych docelowy" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{2BD046B0-A22D-AC48-9611-DCD621C4FAD4}" name="Nasz komentarz"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1467,405 +1505,523 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
+      <c r="C2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="64">
+      <c r="C4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="64">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
+      <c r="C5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32">
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48">
+    <row r="9" spans="1:4" ht="48">
       <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64">
+    <row r="14" spans="1:4" ht="48">
       <c r="A14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="32">
+      <c r="C16" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="32">
       <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="48">
+    <row r="18" spans="1:4" ht="48">
       <c r="A18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="128">
+    <row r="19" spans="1:4" ht="128">
       <c r="A19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32">
+    <row r="20" spans="1:4" ht="32">
       <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="96">
+    <row r="22" spans="1:4" ht="96">
       <c r="A22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="64">
+    <row r="24" spans="1:4" ht="64">
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="64">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:4" ht="64">
+      <c r="A36" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2747,6 +2903,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
+      <UserInfo>
+        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067C6361CB6E9084599FB18326AE1C3F1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa80e6e16b3d8ef5012652a01f080712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b" xmlns:ns3="c5460d0a-0227-459c-9bd4-f350a9742f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77d7b87a9bdb4a04f7565523db09d846" ns2:_="" ns3:_="">
     <xsd:import namespace="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
@@ -2923,20 +3093,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
-      <UserInfo>
-        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
   <ds:schemaRefs>
@@ -2946,6 +3102,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
+    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5589294D-78D5-4E27-BD78-C83536AE0C97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2964,23 +3137,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
-    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" enabled="0" method="" siteId="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" removed="1"/>

--- a/data/input/variables_description.xlsx
+++ b/data/input/variables_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacpergruca/Documents/Projekty/ING_Lions_Den_2024/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E5CA1-78A0-7D4C-9ED0-5A5B5F9B5820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC93662-6DEC-384F-A768-67E38B4C0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
@@ -1509,7 +1509,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/input/variables_description.xlsx
+++ b/data/input/variables_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacpergruca/Documents/Projekty/ING_Lions_Den_2024/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC93662-6DEC-384F-A768-67E38B4C0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05AF7D-C7B0-AF4A-9308-A7CB76B5A2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -975,11 +975,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1508,8 +1505,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1538,61 +1535,61 @@
       <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="64">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1600,13 +1597,13 @@
       <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1614,13 +1611,13 @@
       <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1628,13 +1625,13 @@
       <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1642,13 +1639,13 @@
       <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1656,13 +1653,13 @@
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1670,13 +1667,13 @@
       <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1684,13 +1681,13 @@
       <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1698,13 +1695,13 @@
       <c r="A14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1712,13 +1709,13 @@
       <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1726,25 +1723,25 @@
       <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="32">
       <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1752,13 +1749,13 @@
       <c r="A18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1766,13 +1763,13 @@
       <c r="A19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1780,13 +1777,13 @@
       <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1794,13 +1791,13 @@
       <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1808,13 +1805,13 @@
       <c r="A22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1822,13 +1819,13 @@
       <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1836,13 +1833,13 @@
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1850,13 +1847,13 @@
       <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1864,13 +1861,13 @@
       <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1878,13 +1875,13 @@
       <c r="A27" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1892,13 +1889,13 @@
       <c r="A28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1906,13 +1903,13 @@
       <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1920,13 +1917,13 @@
       <c r="A30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1934,13 +1931,13 @@
       <c r="A31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1948,13 +1945,13 @@
       <c r="A32" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1962,13 +1959,13 @@
       <c r="A33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1976,13 +1973,13 @@
       <c r="A34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1990,13 +1987,13 @@
       <c r="A35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2004,13 +2001,13 @@
       <c r="A36" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2018,7 +2015,7 @@
       <c r="A37" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="20" t="s">
         <v>199</v>
       </c>
@@ -2894,29 +2891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
-      <UserInfo>
-        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067C6361CB6E9084599FB18326AE1C3F1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa80e6e16b3d8ef5012652a01f080712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b" xmlns:ns3="c5460d0a-0227-459c-9bd4-f350a9742f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77d7b87a9bdb4a04f7565523db09d846" ns2:_="" ns3:_="">
     <xsd:import namespace="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
@@ -3093,10 +3067,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c5460d0a-0227-459c-9bd4-f350a9742f84">
+      <UserInfo>
+        <DisplayName>BROŻEK, M. (MARCIN)</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5589294D-78D5-4E27-BD78-C83536AE0C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
+    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3119,20 +3127,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5589294D-78D5-4E27-BD78-C83536AE0C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
-    <ds:schemaRef ds:uri="c5460d0a-0227-459c-9bd4-f350a9742f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
